--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -155,6 +155,41 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.40.565498 (ea082db3280dd6..., userDataDir: C:\Users\Swathi\AppData\Loc...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.99, webStorageEnabled: true}
 Session ID: afcdcf670885913ae798d675066cf2f4
+*** Element info: {Using=name, value=buyFlights}</t>
+  </si>
+  <si>
+    <t>timeout
+  (Session info: chrome=67.0.3396.99)
+  (Driver info: chromedriver=2.40.565498 (ea082db3280dd6843ebfb08a625e3eb905c4f5ab),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T14:04:26.12Z'
+System info: host: 'A164DESK', ip: '192.168.0.116', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_111'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.40.565498 (ea082db3280dd6..., userDataDir: C:\Users\Swathi\AppData\Loc...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.99, webStorageEnabled: true}
+Session ID: 32a5499dc8f7a83a8dfc9b0e36c7ad58</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=67.0.3396.99)
+  (Driver info: chromedriver=2.40.565498 (ea082db3280dd6843ebfb08a625e3eb905c4f5ab),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T14:04:26.12Z'
+System info: host: 'A164DESK', ip: '192.168.0.116', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_111'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.40.565498 (ea082db3280dd6..., userDataDir: C:\Users\Swathi\AppData\Loc...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.99, webStorageEnabled: true}
+Session ID: 32a5499dc8f7a83a8dfc9b0e36c7ad58
+*** Element info: {Using=name, value=reserveFlights}</t>
+  </si>
+  <si>
+    <t>chrome not reachable
+  (Session info: chrome=67.0.3396.99)
+  (Driver info: chromedriver=2.40.565498 (ea082db3280dd6843ebfb08a625e3eb905c4f5ab),platform=Windows NT 6.3.9600 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 0 milliseconds
+Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T14:04:26.12Z'
+System info: host: 'A164DESK', ip: '192.168.0.116', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_111'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.40.565498 (ea082db3280dd6..., userDataDir: C:\Users\Swathi\AppData\Loc...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.99, webStorageEnabled: true}
+Session ID: 32a5499dc8f7a83a8dfc9b0e36c7ad58
 *** Element info: {Using=name, value=buyFlights}</t>
   </si>
 </sst>
@@ -584,7 +619,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -603,9 +638,7 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -624,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -550,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D6"/>

--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -693,6 +693,9 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
